--- a/employee_test.xlsx
+++ b/employee_test.xlsx
@@ -1021,7 +1021,7 @@
       <c r="C5" s="76" t="n"/>
       <c r="D5" s="77" t="inlineStr">
         <is>
-          <t>新しい値</t>
+          <t>rowstest</t>
         </is>
       </c>
       <c r="E5" s="75" t="n"/>
